--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pruthvi" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,13 +397,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Manufacturing &amp; Processing Machinery</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Consumer Electronics</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Industrial Equipment &amp; Components</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Electrical &amp; Electronics</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Construction &amp; Decoration</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Light Industry &amp; Daily Use</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Auto, Motorcycle Parts &amp; Accessories</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Apparel &amp; Accessories</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Lights &amp; Lighting</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Sporting Goods &amp; Recreation</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -397,13 +397,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>LED lights</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>give me aluminim and a random size for indoor purpose and color temprature, I need aroung 100 units</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>abc</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Pruthvi" sheetId="1" r:id="rId1"/>
+    <sheet name="Pruthvi1" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,46 +407,73 @@
       <c r="A1" t="str">
         <v>Manufacturing &amp; Processing Machinery</v>
       </c>
+      <c r="B1" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Machine-Tools.html</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>Consumer Electronics</v>
       </c>
+      <c r="B2" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Engineering-Construction-Machinery.html</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>Industrial Equipment &amp; Components</v>
       </c>
+      <c r="B3" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Woodworking-Machinery.html</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Electrical &amp; Electronics</v>
       </c>
+      <c r="B4" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Plastic-Machinery.html</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>Construction &amp; Decoration</v>
       </c>
+      <c r="B5" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Metallic-Processing-Machinery.html</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>Light Industry &amp; Daily Use</v>
       </c>
+      <c r="B6" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Mould.html</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>Auto, Motorcycle Parts &amp; Accessories</v>
       </c>
+      <c r="B7" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Laser-Equipment.html</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>Apparel &amp; Accessories</v>
       </c>
+      <c r="B8" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Casting-Forging.html</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>Lights &amp; Lighting</v>
       </c>
+      <c r="B9" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Agricultural-Machinery.html</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -454,7 +482,31 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Machine-Tools.html</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>/Manufacturing-Processing-Machinery-Catalog/Engineering-Construction-Machinery.html</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Krishna" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,13 +397,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Furniture.html</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Furniture</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Apparel-Clothing.html</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Apparel &amp; Clothing</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Auto-Parts-Accessories.html</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Auto Parts &amp; Accessories</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Bags-Cases-Luggages.html</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Bags, Cases &amp; Luggages</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Computer-Products.html</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Computer Products</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Consumer-Electronics.html</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Consumer Electronics</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Electrical-Equipments.html</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Electrical Equipment</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Electronic-Components.html</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Electronic Components</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Gifts-Crafts-Collectibles.html</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Gifts, Crafts &amp; Collectibles</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Motorcycles-Scooters.html</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Motorcycles &amp; Scooters</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Sealing-Packaging-Storage-Shelving.html</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Sealing, Packaging, Storage &amp; Shelving</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Building-Materials-Supplies.html</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Building Materials &amp; Supplies</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,9 +417,69 @@
         <v>abc</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sign in with Email Code</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Cuenta</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Konto</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Compte</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Аккаунт</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>アカウント</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Account</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>LED lights</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Led Strip Light</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Send Inquiry</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Post My RFQ</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>LED Tube</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -397,13 +397,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>New User Guide</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>how-to-source-products-on-made-in-china-com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>How to Source Products from China</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>audited-suppliers</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Audited Suppliers | Choose the Reliable</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>private-sourcing-meeting</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Apply to Meet Suppliers- Made-in-China.com buyer services</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,6 +406,9 @@
       <c r="A1" t="str">
         <v>Furniture.html</v>
       </c>
+      <c r="B1" t="str">
+        <v>Electronics</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -524,7 +527,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/Excel.xlsx
+++ b/Project/testdata/Excel.xlsx
@@ -459,7 +459,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Led Strip Light</v>
+        <v>Strip</v>
       </c>
     </row>
     <row r="13">
